--- a/data.xlsx
+++ b/data.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/globzha_emory_edu/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{EA2D641B-5085-4F88-881C-29B5FB411D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{080EF4B6-39C2-42B5-A1EA-B4E44A536E5C}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{EA2D641B-5085-4F88-881C-29B5FB411D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A80DB82-7B17-4512-89EC-66A7A157FDCF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89874D65-E9F3-418F-9D5B-78BF7C9B90C9}"/>
   </bookViews>
   <sheets>
     <sheet name="WEO_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>realgdp</t>
   </si>
@@ -72,12 +85,15 @@
   <si>
     <t>t</t>
   </si>
+  <si>
+    <t>migr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +228,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,8 +421,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -515,6 +543,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -560,10 +625,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -620,6 +689,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D480071E-CF7B-40B2-9851-167BD1645558}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,7 +1023,7 @@
     <col min="2" max="2" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1002,8 +1075,11 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -1055,8 +1131,11 @@
       <c r="Q2" s="2">
         <v>-17.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="3">
+        <v>-194634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -1108,8 +1187,12 @@
       <c r="Q3">
         <v>-17.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="4">
+        <v>-176326</v>
+      </c>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -1161,8 +1244,12 @@
       <c r="Q4">
         <v>-12.17</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="4">
+        <v>-169889</v>
+      </c>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -1214,8 +1301,12 @@
       <c r="Q5">
         <v>-12.722</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="4">
+        <v>-126695</v>
+      </c>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -1267,8 +1358,12 @@
       <c r="Q6">
         <v>-12.379</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="4">
+        <v>-95611</v>
+      </c>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -1320,8 +1415,12 @@
       <c r="Q7">
         <v>-9.6880000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="4">
+        <v>-81302</v>
+      </c>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -1373,8 +1472,12 @@
       <c r="Q8">
         <v>-5.5949999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="4">
+        <v>-79235</v>
+      </c>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1426,8 +1529,12 @@
       <c r="Q9">
         <v>-5.9530000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="4">
+        <v>-45686</v>
+      </c>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1479,8 +1586,12 @@
       <c r="Q10">
         <v>-6.21</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="4">
+        <v>-23130</v>
+      </c>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1532,8 +1643,12 @@
       <c r="Q11">
         <v>-9.3160000000000007</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="4">
+        <v>-26376</v>
+      </c>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1585,8 +1700,12 @@
       <c r="Q12">
         <v>-6.76</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="4">
+        <v>-16758</v>
+      </c>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -1638,8 +1757,12 @@
       <c r="Q13">
         <v>-10.555999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="4">
+        <v>-25518</v>
+      </c>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -1691,8 +1814,12 @@
       <c r="Q14">
         <v>-14.93</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="4">
+        <v>-12086</v>
+      </c>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -1744,8 +1871,12 @@
       <c r="Q15">
         <v>-19.047999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="4">
+        <v>-23418</v>
+      </c>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -1797,8 +1928,12 @@
       <c r="Q16">
         <v>-21.364000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="4">
+        <v>-20542</v>
+      </c>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -1850,8 +1985,12 @@
       <c r="Q17">
         <v>-10.31</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="4">
+        <v>-34948</v>
+      </c>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -1903,8 +2042,12 @@
       <c r="Q18">
         <v>-9.6479999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="4">
+        <v>-30438</v>
+      </c>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -1956,8 +2099,12 @@
       <c r="Q19">
         <v>-11.91</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="4">
+        <v>-35982</v>
+      </c>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -2009,8 +2156,12 @@
       <c r="Q20">
         <v>-11.144</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="4">
+        <v>-21521</v>
+      </c>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -2062,8 +2213,12 @@
       <c r="Q21">
         <v>-5.4550000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="4">
+        <v>-2606</v>
+      </c>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -2115,8 +2270,12 @@
       <c r="Q22">
         <v>-9.9309999999999992</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="4">
+        <v>-6543</v>
+      </c>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -2168,8 +2327,12 @@
       <c r="Q23">
         <v>-11.606999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="4">
+        <v>-3408</v>
+      </c>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -2221,8 +2384,12 @@
       <c r="Q24">
         <v>-12.211</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="4">
+        <v>-8060</v>
+      </c>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2017</v>
       </c>
@@ -2274,8 +2441,12 @@
       <c r="Q25">
         <v>-7.9420000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="4">
+        <v>-2212</v>
+      </c>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -2327,8 +2498,12 @@
       <c r="Q26">
         <v>-6.6589999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="4">
+        <v>-10783</v>
+      </c>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -2380,8 +2555,12 @@
       <c r="Q27">
         <v>-5.806</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="4">
+        <v>-8243</v>
+      </c>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -2433,8 +2612,12 @@
       <c r="Q28">
         <v>-12.368</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="4">
+        <v>15732</v>
+      </c>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2486,8 +2669,12 @@
       <c r="Q29">
         <v>-10.279</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="4">
+        <v>-25966</v>
+      </c>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -2539,8 +2726,12 @@
       <c r="Q30">
         <v>-4.4829999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="4">
+        <v>54509</v>
+      </c>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2023</v>
       </c>
@@ -2592,65 +2783,69 @@
       <c r="Q31">
         <v>-4.3440000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2024</v>
-      </c>
-      <c r="B32">
-        <v>66.128</v>
-      </c>
-      <c r="C32" s="1">
-        <v>17697.575000000001</v>
-      </c>
-      <c r="D32">
-        <v>23.827999999999999</v>
-      </c>
-      <c r="E32">
-        <v>18.013000000000002</v>
-      </c>
-      <c r="F32">
-        <v>178.58799999999999</v>
-      </c>
-      <c r="G32">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="H32">
-        <v>4.1710000000000003</v>
-      </c>
-      <c r="I32">
-        <v>2.0470000000000002</v>
-      </c>
-      <c r="J32">
-        <v>14.5</v>
-      </c>
-      <c r="K32">
-        <v>3.7370000000000001</v>
-      </c>
-      <c r="L32">
-        <v>27.564</v>
-      </c>
-      <c r="M32">
-        <v>30.695</v>
-      </c>
-      <c r="N32">
-        <v>34.274000000000001</v>
-      </c>
-      <c r="O32">
-        <v>38.167000000000002</v>
-      </c>
-      <c r="P32">
-        <v>-1.93</v>
-      </c>
-      <c r="Q32">
-        <v>-5.8159999999999998</v>
-      </c>
+      <c r="R31" s="5">
+        <v>-39207</v>
+      </c>
+      <c r="S31" s="6"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35">
+        <v>66.128</v>
+      </c>
+      <c r="C35" s="1">
+        <v>17697.575000000001</v>
+      </c>
+      <c r="D35">
+        <v>23.827999999999999</v>
+      </c>
+      <c r="E35">
+        <v>18.013000000000002</v>
+      </c>
+      <c r="F35">
+        <v>178.58799999999999</v>
+      </c>
+      <c r="G35">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="H35">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="I35">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="J35">
+        <v>14.5</v>
+      </c>
+      <c r="K35">
+        <v>3.7370000000000001</v>
+      </c>
+      <c r="L35">
+        <v>27.564</v>
+      </c>
+      <c r="M35">
+        <v>30.695</v>
+      </c>
+      <c r="N35">
+        <v>34.274000000000001</v>
+      </c>
+      <c r="O35">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="P35">
+        <v>-1.93</v>
+      </c>
+      <c r="Q35">
+        <v>-5.8159999999999998</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/globzha_emory_edu/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{EA2D641B-5085-4F88-881C-29B5FB411D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A80DB82-7B17-4512-89EC-66A7A157FDCF}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="8_{EA2D641B-5085-4F88-881C-29B5FB411D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2000B878-F942-4D31-8ABD-67765A57B138}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89874D65-E9F3-418F-9D5B-78BF7C9B90C9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>realgdp</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>migr</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -1014,13 +1017,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D480071E-CF7B-40B2-9851-167BD1645558}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -1078,6 +1083,9 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -1190,7 +1198,9 @@
       <c r="R3" s="4">
         <v>-176326</v>
       </c>
-      <c r="S3" s="6"/>
+      <c r="S3" s="6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1247,7 +1257,9 @@
       <c r="R4" s="4">
         <v>-169889</v>
       </c>
-      <c r="S4" s="6"/>
+      <c r="S4" s="1">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1304,7 +1316,9 @@
       <c r="R5" s="4">
         <v>-126695</v>
       </c>
-      <c r="S5" s="6"/>
+      <c r="S5" s="1">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1361,7 +1375,9 @@
       <c r="R6" s="4">
         <v>-95611</v>
       </c>
-      <c r="S6" s="6"/>
+      <c r="S6" s="1">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1418,7 +1434,9 @@
       <c r="R7" s="4">
         <v>-81302</v>
       </c>
-      <c r="S7" s="6"/>
+      <c r="S7" s="1">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1475,7 +1493,9 @@
       <c r="R8" s="4">
         <v>-79235</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="1">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1532,7 +1552,9 @@
       <c r="R9" s="4">
         <v>-45686</v>
       </c>
-      <c r="S9" s="6"/>
+      <c r="S9" s="1">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1589,7 +1611,9 @@
       <c r="R10" s="4">
         <v>-23130</v>
       </c>
-      <c r="S10" s="6"/>
+      <c r="S10" s="6">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1646,7 +1670,9 @@
       <c r="R11" s="4">
         <v>-26376</v>
       </c>
-      <c r="S11" s="6"/>
+      <c r="S11" s="6">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1703,7 +1729,9 @@
       <c r="R12" s="4">
         <v>-16758</v>
       </c>
-      <c r="S12" s="6"/>
+      <c r="S12" s="6">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1760,7 +1788,9 @@
       <c r="R13" s="4">
         <v>-25518</v>
       </c>
-      <c r="S13" s="6"/>
+      <c r="S13" s="6">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1817,7 +1847,9 @@
       <c r="R14" s="4">
         <v>-12086</v>
       </c>
-      <c r="S14" s="6"/>
+      <c r="S14" s="6">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1874,7 +1906,9 @@
       <c r="R15" s="4">
         <v>-23418</v>
       </c>
-      <c r="S15" s="6"/>
+      <c r="S15" s="6">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1931,7 +1965,9 @@
       <c r="R16" s="4">
         <v>-20542</v>
       </c>
-      <c r="S16" s="6"/>
+      <c r="S16" s="6">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -1988,7 +2024,9 @@
       <c r="R17" s="4">
         <v>-34948</v>
       </c>
-      <c r="S17" s="6"/>
+      <c r="S17" s="6">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -2045,7 +2083,9 @@
       <c r="R18" s="4">
         <v>-30438</v>
       </c>
-      <c r="S18" s="6"/>
+      <c r="S18" s="6">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -2102,7 +2142,9 @@
       <c r="R19" s="4">
         <v>-35982</v>
       </c>
-      <c r="S19" s="6"/>
+      <c r="S19" s="6">
+        <v>6.7500000000000004E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -2159,7 +2201,9 @@
       <c r="R20" s="4">
         <v>-21521</v>
       </c>
-      <c r="S20" s="6"/>
+      <c r="S20" s="6">
+        <v>5.2499999999999998E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -2216,7 +2260,9 @@
       <c r="R21" s="4">
         <v>-2606</v>
       </c>
-      <c r="S21" s="6"/>
+      <c r="S21" s="6">
+        <v>3.7499999999999999E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -2273,7 +2319,9 @@
       <c r="R22" s="4">
         <v>-6543</v>
       </c>
-      <c r="S22" s="6"/>
+      <c r="S22" s="6">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -2330,7 +2378,9 @@
       <c r="R23" s="4">
         <v>-3408</v>
       </c>
-      <c r="S23" s="6"/>
+      <c r="S23" s="6">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -2387,7 +2437,9 @@
       <c r="R24" s="4">
         <v>-8060</v>
       </c>
-      <c r="S24" s="6"/>
+      <c r="S24" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -2444,7 +2496,9 @@
       <c r="R25" s="4">
         <v>-2212</v>
       </c>
-      <c r="S25" s="6"/>
+      <c r="S25" s="6">
+        <v>7.2499999999999995E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -2501,7 +2555,9 @@
       <c r="R26" s="4">
         <v>-10783</v>
       </c>
-      <c r="S26" s="6"/>
+      <c r="S26" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -2558,7 +2614,9 @@
       <c r="R27" s="4">
         <v>-8243</v>
       </c>
-      <c r="S27" s="6"/>
+      <c r="S27" s="6">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -2615,7 +2673,9 @@
       <c r="R28" s="4">
         <v>15732</v>
       </c>
-      <c r="S28" s="6"/>
+      <c r="S28" s="6">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -2672,7 +2732,9 @@
       <c r="R29" s="4">
         <v>-25966</v>
       </c>
-      <c r="S29" s="6"/>
+      <c r="S29" s="6">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -2729,7 +2791,9 @@
       <c r="R30" s="4">
         <v>54509</v>
       </c>
-      <c r="S30" s="6"/>
+      <c r="S30" s="6">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -2786,7 +2850,9 @@
       <c r="R31" s="5">
         <v>-39207</v>
       </c>
-      <c r="S31" s="6"/>
+      <c r="S31" s="6">
+        <v>9.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
